--- a/results/scenario_1/scenario_1.xlsx
+++ b/results/scenario_1/scenario_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MetodySymulacyjne\MS_project2\results\scenario_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{394955C6-F538-4053-8357-66343A311ADC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466DD19C-79FC-4040-8FB7-714D46876B29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{303A26E9-D629-421F-BDB8-B96358A3F3B8}"/>
+    <workbookView xWindow="7815" yWindow="1620" windowWidth="17940" windowHeight="9210" xr2:uid="{303A26E9-D629-421F-BDB8-B96358A3F3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_1" sheetId="1" r:id="rId1"/>
@@ -1611,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F634F3-CA75-4E29-820E-C70316CED6F2}">
   <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/scenario_1/scenario_1.xlsx
+++ b/results/scenario_1/scenario_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MetodySymulacyjne\MS_project2\results\scenario_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466DD19C-79FC-4040-8FB7-714D46876B29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E34934-7A80-4820-A330-950E11BBB88F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7815" yWindow="1620" windowWidth="17940" windowHeight="9210" xr2:uid="{303A26E9-D629-421F-BDB8-B96358A3F3B8}"/>
+    <workbookView xWindow="-23554" yWindow="-6523" windowWidth="23657" windowHeight="15840" xr2:uid="{303A26E9-D629-421F-BDB8-B96358A3F3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_1" sheetId="1" r:id="rId1"/>
@@ -87,10 +87,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -256,13 +256,13 @@
                     <c:v>74.322010173622544</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>44.561099499933093</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>55.194192769956885</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>42.415886771007017</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>0</c:v>
@@ -325,13 +325,13 @@
                     <c:v>74.322010173622544</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>44.561099499933093</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>55.194192769956885</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>42.415886771007017</c:v>
                   </c:pt>
                   <c:pt idx="9">
                     <c:v>0</c:v>
@@ -477,13 +477,13 @@
                   <c:v>373.64733233400005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>380.72938610966668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>354.60080917399995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>372.92429902599997</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1611,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F634F3-CA75-4E29-820E-C70316CED6F2}">
   <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,14 +1626,14 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C3">
@@ -1659,16 +1659,16 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>396.49520462999988</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>403.37566864299976</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>428.32774980000011</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f>AVERAGE(C4:E4)</f>
         <v>409.3995410243333</v>
       </c>
@@ -1685,16 +1685,16 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>358.35319968000005</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>400.83700695499994</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>419.66999892000007</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f t="shared" ref="F5:F23" si="0">AVERAGE(C5:E5)</f>
         <v>392.95340185166668</v>
       </c>
@@ -1711,16 +1711,16 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>366.66709352700013</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>373.25370970499995</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>423.77118482900016</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>387.89732935366675</v>
       </c>
@@ -1737,16 +1737,16 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>369.61620503100005</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>331.82488323999991</v>
       </c>
       <c r="E7">
         <v>408.22533245700009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>369.88880690933337</v>
       </c>
@@ -1763,16 +1763,16 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>335.57200005200002</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>394.91360173000015</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>429.72877043999989</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f>AVERAGE(C8:E8)</f>
         <v>386.73812407400004</v>
       </c>
@@ -1789,16 +1789,16 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>302.78402807200007</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>385.67826441999989</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>432.4797045100002</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>373.64733233400005</v>
       </c>
@@ -1815,70 +1815,88 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="e">
+      <c r="C10" s="1">
+        <v>348.34722388900008</v>
+      </c>
+      <c r="D10" s="1">
+        <v>369.27486890999984</v>
+      </c>
+      <c r="E10" s="1">
+        <v>424.56606553000006</v>
+      </c>
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" t="e">
+        <v>380.72938610966668</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" t="e">
+        <v>39.379340122481175</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>44.561099499933093</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="e">
+      <c r="C11" s="1">
+        <v>305.66107607199996</v>
+      </c>
+      <c r="D11" s="1">
+        <v>354.92999999999989</v>
+      </c>
+      <c r="E11" s="1">
+        <v>403.21135144999994</v>
+      </c>
+      <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" t="e">
+        <v>354.60080917399995</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H11" t="e">
+        <v>48.775970841500147</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>55.194192769956885</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="e">
+      <c r="C12" s="1">
+        <v>344.91829651999984</v>
+      </c>
+      <c r="D12" s="1">
+        <v>358.34816811799999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>415.50643244000008</v>
+      </c>
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" t="e">
+        <v>372.92429902599997</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" t="e">
+        <v>37.483582104042185</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>42.415886771007017</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>9</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="e">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1895,10 +1913,10 @@
       <c r="B14">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="e">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1915,10 +1933,10 @@
       <c r="B15">
         <v>11</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2" t="e">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1935,10 +1953,10 @@
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="e">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1955,10 +1973,10 @@
       <c r="B17">
         <v>13</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="e">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1975,10 +1993,10 @@
       <c r="B18">
         <v>14</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="e">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1995,10 +2013,10 @@
       <c r="B19">
         <v>15</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2" t="e">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2015,10 +2033,10 @@
       <c r="B20">
         <v>16</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2" t="e">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2035,10 +2053,10 @@
       <c r="B21">
         <v>17</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="e">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2055,10 +2073,10 @@
       <c r="B22">
         <v>18</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="e">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -2075,10 +2093,10 @@
       <c r="B23">
         <v>19</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="e">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>

--- a/results/scenario_1/scenario_1.xlsx
+++ b/results/scenario_1/scenario_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MetodySymulacyjne\MS_project2\results\scenario_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E34934-7A80-4820-A330-950E11BBB88F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449498FF-5900-488C-87A0-C8ED4C36BEB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23554" yWindow="-6523" windowWidth="23657" windowHeight="15840" xr2:uid="{303A26E9-D629-421F-BDB8-B96358A3F3B8}"/>
   </bookViews>

--- a/results/scenario_1/scenario_1.xlsx
+++ b/results/scenario_1/scenario_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MetodySymulacyjne\MS_project2\results\scenario_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449498FF-5900-488C-87A0-C8ED4C36BEB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4C898B-204C-48EB-8B81-D2F38314D383}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23554" yWindow="-6523" windowWidth="23657" windowHeight="15840" xr2:uid="{303A26E9-D629-421F-BDB8-B96358A3F3B8}"/>
+    <workbookView xWindow="-69" yWindow="-69" windowWidth="23589" windowHeight="15772" xr2:uid="{303A26E9-D629-421F-BDB8-B96358A3F3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_1" sheetId="1" r:id="rId1"/>
@@ -1612,7 +1612,7 @@
   <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
